--- a/data_year/zb/资源和环境/工业污染治理投资.xlsx
+++ b/data_year/zb/资源和环境/工业污染治理投资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,459 +473,317 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3081059.5</v>
+        <v>3969768.2</v>
       </c>
       <c r="C2" t="n">
-        <v>11290</v>
+        <v>5866</v>
       </c>
       <c r="D2" t="n">
-        <v>357335.6</v>
+        <v>620020.6</v>
       </c>
       <c r="E2" t="n">
-        <v>13416.1</v>
+        <v>14193.2</v>
       </c>
       <c r="F2" t="n">
-        <v>226464.8</v>
+        <v>142692.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1427974.9</v>
+        <v>1881882.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1055868.1</v>
+        <v>1295519.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4581908.7</v>
+        <v>4443610.1</v>
       </c>
       <c r="C3" t="n">
-        <v>11158</v>
+        <v>7005</v>
       </c>
       <c r="D3" t="n">
-        <v>810395.9</v>
+        <v>413830.670000002</v>
       </c>
       <c r="E3" t="n">
-        <v>30613.3</v>
+        <v>21622.5</v>
       </c>
       <c r="F3" t="n">
-        <v>274181.3</v>
+        <v>313875.25</v>
       </c>
       <c r="G3" t="n">
-        <v>2129571.3</v>
+        <v>2116810.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1337146.9</v>
+        <v>1577471.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4839485.1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11972</v>
-      </c>
+        <v>5004572.672</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>782847.9</v>
+        <v>764860.36</v>
       </c>
       <c r="E4" t="n">
-        <v>30145.1</v>
+        <v>11626.79</v>
       </c>
       <c r="F4" t="n">
-        <v>182630.5</v>
+        <v>247499.33</v>
       </c>
       <c r="G4" t="n">
-        <v>2332697.1</v>
+        <v>2577138.652</v>
       </c>
       <c r="H4" t="n">
-        <v>1511164.5</v>
+        <v>1403447.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5523909.4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12547</v>
-      </c>
+        <v>8496646.573000001</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>606837.9</v>
+        <v>680607.63</v>
       </c>
       <c r="E5" t="n">
-        <v>18278.6</v>
+        <v>17627.91</v>
       </c>
       <c r="F5" t="n">
-        <v>182531.9</v>
+        <v>140480.06</v>
       </c>
       <c r="G5" t="n">
-        <v>2752642.2</v>
+        <v>6409108.71</v>
       </c>
       <c r="H5" t="n">
-        <v>1960721.8</v>
+        <v>1248822.263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5426403.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11184</v>
-      </c>
+        <v>9976510.869999999</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>598206</v>
+        <v>768648.829999999</v>
       </c>
       <c r="E6" t="n">
-        <v>28382.9</v>
+        <v>10950.24</v>
       </c>
       <c r="F6" t="n">
-        <v>196850.6</v>
+        <v>150504.16</v>
       </c>
       <c r="G6" t="n">
-        <v>2656986.8</v>
+        <v>7893934.91</v>
       </c>
       <c r="H6" t="n">
-        <v>1945977.4</v>
+        <v>1152472.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4426206.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8236</v>
-      </c>
+        <v>7736822.2</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>374349.2</v>
+        <v>1145250.5</v>
       </c>
       <c r="E7" t="n">
-        <v>14100</v>
+        <v>27892.3</v>
       </c>
       <c r="F7" t="n">
-        <v>218535.7</v>
+        <v>161468.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2324616</v>
+        <v>5218073.1</v>
       </c>
       <c r="H7" t="n">
-        <v>1494606</v>
+        <v>1184138.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3969768.2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5866</v>
-      </c>
+        <v>8190040.51</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>620020.6</v>
+        <v>1019974.37</v>
       </c>
       <c r="E8" t="n">
-        <v>14193.2</v>
+        <v>6236.03</v>
       </c>
       <c r="F8" t="n">
-        <v>142692.2</v>
+        <v>466732.87</v>
       </c>
       <c r="G8" t="n">
-        <v>1881882.5</v>
+        <v>5614702.3</v>
       </c>
       <c r="H8" t="n">
-        <v>1295519.1</v>
+        <v>1082394.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4443610.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7005</v>
-      </c>
+        <v>6815345.489</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>413830.670000002</v>
+        <v>1448675.709</v>
       </c>
       <c r="E9" t="n">
-        <v>21622.5</v>
+        <v>12862.42</v>
       </c>
       <c r="F9" t="n">
-        <v>313875.25</v>
+        <v>127419.4</v>
       </c>
       <c r="G9" t="n">
-        <v>2116810.6</v>
+        <v>4462627.893</v>
       </c>
       <c r="H9" t="n">
-        <v>1577471.08</v>
+        <v>763760.067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5004572.672</v>
+        <v>6212735.619</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>764860.36</v>
+        <v>1442118.559</v>
       </c>
       <c r="E10" t="n">
-        <v>11626.79</v>
+        <v>15181.062</v>
       </c>
       <c r="F10" t="n">
-        <v>247499.33</v>
+        <v>184249.471</v>
       </c>
       <c r="G10" t="n">
-        <v>2577138.652</v>
+        <v>3931104.173</v>
       </c>
       <c r="H10" t="n">
-        <v>1403447.54</v>
+        <v>640082.3540000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8496646.573000001</v>
+        <v>6151513.427</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>680607.63</v>
+        <v>1590616.206</v>
       </c>
       <c r="E11" t="n">
-        <v>17627.91</v>
+        <v>14168.469</v>
       </c>
       <c r="F11" t="n">
-        <v>140480.06</v>
+        <v>170728.99</v>
       </c>
       <c r="G11" t="n">
-        <v>6409108.71</v>
+        <v>3676995.44</v>
       </c>
       <c r="H11" t="n">
-        <v>1248822.263</v>
+        <v>699004.322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9976510.869999999</v>
+        <v>4542585.902</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>768648.829999999</v>
+        <v>1364540.174</v>
       </c>
       <c r="E12" t="n">
-        <v>10950.24</v>
+        <v>7404.728</v>
       </c>
       <c r="F12" t="n">
-        <v>150504.16</v>
+        <v>173064.012</v>
       </c>
       <c r="G12" t="n">
-        <v>7893934.91</v>
+        <v>2423724.893</v>
       </c>
       <c r="H12" t="n">
-        <v>1152472.73</v>
+        <v>573852.095</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7736822.2</v>
+        <v>3352364.344</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1145250.5</v>
+        <v>728093.873</v>
       </c>
       <c r="E13" t="n">
-        <v>27892.3</v>
+        <v>5436.764</v>
       </c>
       <c r="F13" t="n">
-        <v>161468.1</v>
+        <v>36610.88</v>
       </c>
       <c r="G13" t="n">
-        <v>5218073.1</v>
+        <v>2220981.739</v>
       </c>
       <c r="H13" t="n">
-        <v>1184138.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8190040.51</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>1019974.37</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6236.03</v>
-      </c>
-      <c r="F14" t="n">
-        <v>466732.87</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5614702.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1082394.94</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6815345.489</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>1448675.709</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12862.42</v>
-      </c>
-      <c r="F15" t="n">
-        <v>127419.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4462627.893</v>
-      </c>
-      <c r="H15" t="n">
-        <v>763760.067</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6212735.619</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>1442118.559</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15181.062</v>
-      </c>
-      <c r="F16" t="n">
-        <v>184249.471</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3931104.173</v>
-      </c>
-      <c r="H16" t="n">
-        <v>640082.3540000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>6151513.427</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>1590616.206</v>
-      </c>
-      <c r="E17" t="n">
-        <v>14168.469</v>
-      </c>
-      <c r="F17" t="n">
-        <v>170728.99</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3676995.44</v>
-      </c>
-      <c r="H17" t="n">
-        <v>699004.322</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4542585.902</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>1364540.174</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7404.728</v>
-      </c>
-      <c r="F18" t="n">
-        <v>173064.012</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2423724.893</v>
-      </c>
-      <c r="H18" t="n">
-        <v>573852.095</v>
+        <v>361241.088</v>
       </c>
     </row>
   </sheetData>
